--- a/output/df_remapping_mg_2018.xlsx
+++ b/output/df_remapping_mg_2018.xlsx
@@ -14,12 +14,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+  <si>
+    <t>NTEE</t>
+  </si>
   <si>
     <t>IRS_NTEE</t>
   </si>
   <si>
-    <t>Pred_NTEE</t>
+    <t>Remap_NTEE</t>
+  </si>
+  <si>
+    <t>IRS_NTEE_ptg</t>
+  </si>
+  <si>
+    <t>Remap_NTEE_ptg</t>
   </si>
   <si>
     <t>A</t>
@@ -455,307 +464,547 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
         <v>33233</v>
       </c>
-      <c r="C2">
-        <v>60661</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
+      <c r="D2">
+        <v>49509</v>
+      </c>
+      <c r="E2">
+        <v>0.0756740140267784</v>
+      </c>
+      <c r="F2">
+        <v>0.07499545564711585</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>58796</v>
+      </c>
+      <c r="D3">
+        <v>97370</v>
+      </c>
+      <c r="E3">
+        <v>0.1338828672921031</v>
+      </c>
+      <c r="F3">
+        <v>0.147494546776539</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>8078</v>
+      </c>
+      <c r="D4">
+        <v>12968</v>
+      </c>
+      <c r="E4">
+        <v>0.01839420712268877</v>
+      </c>
+      <c r="F4">
+        <v>0.0196437227338827</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B3">
-        <v>58796</v>
-      </c>
-      <c r="C3">
-        <v>131859</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>8630</v>
+      </c>
+      <c r="D5">
+        <v>10941</v>
+      </c>
+      <c r="E5">
+        <v>0.01965115219965389</v>
+      </c>
+      <c r="F5">
+        <v>0.01657325496849249</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B4">
-        <v>8078</v>
-      </c>
-      <c r="C4">
-        <v>16251</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>22227</v>
+      </c>
+      <c r="D6">
+        <v>37561</v>
+      </c>
+      <c r="E6">
+        <v>0.05061253301757902</v>
+      </c>
+      <c r="F6">
+        <v>0.05689681289384391</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B5">
-        <v>8630</v>
-      </c>
-      <c r="C5">
-        <v>12602</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>7466</v>
+      </c>
+      <c r="D7">
+        <v>14045</v>
+      </c>
+      <c r="E7">
+        <v>0.01700063758083614</v>
+      </c>
+      <c r="F7">
+        <v>0.02127514541929229</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B6">
-        <v>22227</v>
-      </c>
-      <c r="C6">
-        <v>53138</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>9670</v>
+      </c>
+      <c r="D8">
+        <v>17999</v>
+      </c>
+      <c r="E8">
+        <v>0.02201930959103744</v>
+      </c>
+      <c r="F8">
+        <v>0.02726460252060107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B7">
-        <v>7466</v>
-      </c>
-      <c r="C7">
-        <v>20166</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>2095</v>
+      </c>
+      <c r="D9">
+        <v>3418</v>
+      </c>
+      <c r="E9">
+        <v>0.004770470898988979</v>
+      </c>
+      <c r="F9">
+        <v>0.005177532719340766</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B8">
-        <v>9670</v>
-      </c>
-      <c r="C8">
-        <v>23133</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10">
+        <v>7435</v>
+      </c>
+      <c r="D10">
+        <v>11860</v>
+      </c>
+      <c r="E10">
+        <v>0.01693004827397759</v>
+      </c>
+      <c r="F10">
+        <v>0.01796534173533689</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B9">
-        <v>2095</v>
-      </c>
-      <c r="C9">
-        <v>5782</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11">
+        <v>10060</v>
+      </c>
+      <c r="D11">
+        <v>20085</v>
+      </c>
+      <c r="E11">
+        <v>0.02290736861280626</v>
+      </c>
+      <c r="F11">
+        <v>0.03042444255937955</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B10">
-        <v>7435</v>
-      </c>
-      <c r="C10">
-        <v>15083</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1" t="s">
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12">
+        <v>5709</v>
+      </c>
+      <c r="D12">
+        <v>9206</v>
+      </c>
+      <c r="E12">
+        <v>0.01299981783404682</v>
+      </c>
+      <c r="F12">
+        <v>0.01394510421715948</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B11">
-        <v>10060</v>
-      </c>
-      <c r="C11">
-        <v>27431</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1" t="s">
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13">
+        <v>17759</v>
+      </c>
+      <c r="D13">
+        <v>33618</v>
+      </c>
+      <c r="E13">
+        <v>0.04043856453228892</v>
+      </c>
+      <c r="F13">
+        <v>0.05092401841977703</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B12">
-        <v>5709</v>
-      </c>
-      <c r="C12">
-        <v>11616</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1" t="s">
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14">
+        <v>8936</v>
+      </c>
+      <c r="D14">
+        <v>10958</v>
+      </c>
+      <c r="E14">
+        <v>0.0203479369705802</v>
+      </c>
+      <c r="F14">
+        <v>0.01659900630150267</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B13">
-        <v>17759</v>
-      </c>
-      <c r="C13">
-        <v>42671</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1" t="s">
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15">
+        <v>34137</v>
+      </c>
+      <c r="D15">
+        <v>45058</v>
+      </c>
+      <c r="E15">
+        <v>0.07773248929775026</v>
+      </c>
+      <c r="F15">
+        <v>0.06825315075133301</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B14">
-        <v>8936</v>
-      </c>
-      <c r="C14">
-        <v>12737</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1" t="s">
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16">
+        <v>7712</v>
+      </c>
+      <c r="D16">
+        <v>8648</v>
+      </c>
+      <c r="E16">
+        <v>0.01756079788687494</v>
+      </c>
+      <c r="F16">
+        <v>0.01309985458070771</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B15">
-        <v>34137</v>
-      </c>
-      <c r="C15">
-        <v>53508</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1" t="s">
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17">
+        <v>37228</v>
+      </c>
+      <c r="D17">
+        <v>65870</v>
+      </c>
+      <c r="E17">
+        <v>0.08477092631387194</v>
+      </c>
+      <c r="F17">
+        <v>0.09977884149297141</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B16">
-        <v>7712</v>
-      </c>
-      <c r="C16">
-        <v>11932</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="1" t="s">
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18">
+        <v>6644</v>
+      </c>
+      <c r="D18">
+        <v>15269</v>
+      </c>
+      <c r="E18">
+        <v>0.01512888241187722</v>
+      </c>
+      <c r="F18">
+        <v>0.02312924139602521</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B17">
-        <v>37228</v>
-      </c>
-      <c r="C17">
-        <v>91864</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19">
+        <v>2369</v>
+      </c>
+      <c r="D19">
+        <v>5629</v>
+      </c>
+      <c r="E19">
+        <v>0.005394389288641953</v>
+      </c>
+      <c r="F19">
+        <v>0.008526720794958798</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B18">
-        <v>6644</v>
-      </c>
-      <c r="C18">
-        <v>19662</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1" t="s">
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20">
+        <v>36035</v>
+      </c>
+      <c r="D20">
+        <v>53528</v>
+      </c>
+      <c r="E20">
+        <v>0.08205437653702523</v>
+      </c>
+      <c r="F20">
+        <v>0.08108337372758119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B19">
-        <v>2369</v>
-      </c>
-      <c r="C19">
-        <v>8445</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="1" t="s">
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21">
+        <v>61374</v>
+      </c>
+      <c r="D21">
+        <v>58069</v>
+      </c>
+      <c r="E21">
+        <v>0.1397531651334366</v>
+      </c>
+      <c r="F21">
+        <v>0.08796200920988852</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B20">
-        <v>36035</v>
-      </c>
-      <c r="C20">
-        <v>71093</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="1" t="s">
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22">
+        <v>2489</v>
+      </c>
+      <c r="D22">
+        <v>4995</v>
+      </c>
+      <c r="E22">
+        <v>0.005667638218416978</v>
+      </c>
+      <c r="F22">
+        <v>0.00756634755210858</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B21">
-        <v>61374</v>
-      </c>
-      <c r="C21">
-        <v>73096</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="1" t="s">
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23">
+        <v>746</v>
+      </c>
+      <c r="D23">
+        <v>2077</v>
+      </c>
+      <c r="E23">
+        <v>0.001698697513434739</v>
+      </c>
+      <c r="F23">
+        <v>0.00314620698012603</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B22">
-        <v>2489</v>
-      </c>
-      <c r="C22">
-        <v>6917</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24">
+        <v>13852</v>
+      </c>
+      <c r="D24">
+        <v>19413</v>
+      </c>
+      <c r="E24">
+        <v>0.03154203479369706</v>
+      </c>
+      <c r="F24">
+        <v>0.0294065075133301</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B23">
-        <v>746</v>
-      </c>
-      <c r="C23">
-        <v>4271</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="1" t="s">
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25">
+        <v>19588</v>
+      </c>
+      <c r="D25">
+        <v>29597</v>
+      </c>
+      <c r="E25">
+        <v>0.04460333363694326</v>
+      </c>
+      <c r="F25">
+        <v>0.04483307077072225</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B24">
-        <v>13852</v>
-      </c>
-      <c r="C24">
-        <v>23036</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="1" t="s">
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26">
+        <v>9114</v>
+      </c>
+      <c r="D26">
+        <v>20046</v>
+      </c>
+      <c r="E26">
+        <v>0.02075325621641315</v>
+      </c>
+      <c r="F26">
+        <v>0.03036536597188561</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B25">
-        <v>19588</v>
-      </c>
-      <c r="C25">
-        <v>36611</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26">
-        <v>9114</v>
-      </c>
-      <c r="C26">
-        <v>24634</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="1"/>
-      <c r="B28">
-        <v>6942</v>
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27">
+        <v>7778</v>
+      </c>
+      <c r="D27">
+        <v>2423</v>
+      </c>
+      <c r="E27">
+        <v>0.01771108479825121</v>
+      </c>
+      <c r="F27">
+        <v>0.003670322346097916</v>
       </c>
     </row>
   </sheetData>
